--- a/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-2,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 8,63</t>
+          <t>-12,53; 10,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 11,06</t>
+          <t>-13,83; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -0,79</t>
+          <t>-16,7; 7,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 21,08</t>
+          <t>-3,33; 23,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 9,14</t>
+          <t>-14,65; 4,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 4,54</t>
+          <t>-11,47; 12,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 12,57</t>
+          <t>-4,55; 12,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 7,6</t>
+          <t>-11,01; 4,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,2</t>
+          <t>-10,31; 5,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-76,76%</t>
+          <t>-27,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>158,61%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-38,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-18,37%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 258,48</t>
+          <t>-57,24; 121,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 293,33</t>
+          <t>-69,47; 145,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,75; 90,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 1411,76</t>
+          <t>-27,27; 534,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,61; 157,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 282,8</t>
+          <t>-68,47; 337,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 331,24</t>
+          <t>-26,0; 140,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 197,41</t>
+          <t>-65,56; 57,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,99; 18,0</t>
+          <t>-62,0; 68,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-3,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 10,55</t>
+          <t>-8,46; 8,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 11,36</t>
+          <t>-7,73; 11,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 7,63</t>
+          <t>-12,72; -0,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 23,29</t>
+          <t>-0,38; 21,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 4,81</t>
+          <t>-7,46; 9,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 12,82</t>
+          <t>-8,7; 4,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 12,7</t>
+          <t>-1,72; 12,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 4,26</t>
+          <t>-5,49; 7,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 5,71</t>
+          <t>-9,36; 0,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-27,49%</t>
+          <t>-76,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>158,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-29,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,67%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,37%</t>
+          <t>-57,23%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 121,09</t>
+          <t>-100,0; 258,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,47; 145,91</t>
+          <t>-77,22; 293,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 90,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 534,74</t>
+          <t>-20,91; 1411,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 157,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 337,89</t>
+          <t>-86,03; 282,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 140,19</t>
+          <t>-26,64; 331,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 57,34</t>
+          <t>-65,97; 197,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 68,86</t>
+          <t>-85,99; 18,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>13,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 16,01</t>
+          <t>-13,28; 13,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 21,79</t>
+          <t>-7,35; 23,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 6,26</t>
+          <t>-22,89; -1,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 18,69</t>
+          <t>0,65; 24,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 22,22</t>
+          <t>0,48; 28,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 23,05</t>
+          <t>-0,83; 33,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,15</t>
+          <t>-3,49; 15,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 18,35</t>
+          <t>0,91; 22,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 9,48</t>
+          <t>-8,78; 12,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,89%</t>
+          <t>-84,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>195,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>101,41%</t>
+          <t>227,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,33%</t>
+          <t>247,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>117,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>12,5%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 436,41</t>
+          <t>-70,86; 368,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 568,53</t>
+          <t>-47,55; 578,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,56; 249,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 349,55</t>
+          <t>-23,81; 1130,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 362,84</t>
+          <t>-18,63; 1181,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 356,47</t>
+          <t>-49,75; 1557,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 229,24</t>
+          <t>-28,34; 339,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 284,97</t>
+          <t>-6,27; 454,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 153,68</t>
+          <t>-73,77; 231,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 10,55</t>
+          <t>-9,09; 13,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 11,36</t>
+          <t>-13,41; 9,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 7,63</t>
+          <t>-12,29; 9,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 23,29</t>
+          <t>-6,8; 18,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 4,81</t>
+          <t>-12,83; 12,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 12,82</t>
+          <t>-13,52; 11,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 12,7</t>
+          <t>-4,28; 11,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 4,26</t>
+          <t>-8,11; 7,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 5,71</t>
+          <t>-9,61; 7,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-10,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,49%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-10,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,67%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,37%</t>
+          <t>-12,69%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 121,09</t>
+          <t>-45,51; 165,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,47; 145,91</t>
+          <t>-68,9; 112,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 90,19</t>
+          <t>-67,34; 122,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 534,74</t>
+          <t>-37,73; 229,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 157,86</t>
+          <t>-62,17; 144,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 337,89</t>
+          <t>-69,07; 170,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 140,19</t>
+          <t>-24,92; 115,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 57,34</t>
+          <t>-46,09; 81,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 68,86</t>
+          <t>-54,24; 79,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 8,63</t>
+          <t>-14,98; 15,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 11,06</t>
+          <t>-14,59; 16,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; -0,79</t>
+          <t>-17,82; 7,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 21,08</t>
+          <t>-2,22; 24,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 9,14</t>
+          <t>-12,31; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 4,54</t>
+          <t>-9,35; 11,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 12,57</t>
+          <t>-4,15; 17,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 7,6</t>
+          <t>-8,89; 8,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,2</t>
+          <t>-11,13; 6,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-76,76%</t>
+          <t>-41,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>158,61%</t>
+          <t>193,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-13,39%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 258,48</t>
+          <t>-84,52; 445,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,22; 293,33</t>
+          <t>-75,09; 436,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 1411,76</t>
+          <t>-67,32; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 282,8</t>
+          <t>-88,24; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 331,24</t>
+          <t>-36,89; 451,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 197,41</t>
+          <t>-65,91; 247,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,99; 18,0</t>
+          <t>-76,02; 214,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-3,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 8,73</t>
+          <t>-4,79; 12,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,33</t>
+          <t>-4,8; 17,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,76</t>
+          <t>-9,35; 1,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 16,15</t>
+          <t>-3,58; 23,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,48</t>
+          <t>-9,42; 14,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,74</t>
+          <t>-14,68; 1,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,34</t>
+          <t>-1,34; 15,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,19</t>
+          <t>-3,9; 11,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,32</t>
+          <t>-8,7; 0,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>106,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-46,66%</t>
+          <t>-69,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100,58%</t>
+          <t>142,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>-64,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,67%</t>
+          <t>129,25%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>-65,25%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 118,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 122,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,67; 12,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,17; 285,28</t>
+          <t>-50,02; 1058,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 135,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 92,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,21; 140,88</t>
+          <t>-37,28; 761,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 93,45</t>
+          <t>-73,49; 535,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,83; 18,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,76</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8,95</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 9,07</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 8,83</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 0,33</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 16,14</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 8,8</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 4,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 10,42</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 7,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 0,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-46,66%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>100,58%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>59,67%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-27,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-25,08; 119,52</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-29,31; 117,96</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-72,21; 11,45</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 291,42</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-28,68; 155,02</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-50,83; 81,0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9,9; 147,18</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 107,67</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-55,02; 13,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 13,97</t>
+          <t>-12,86; 13,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 23,96</t>
+          <t>-9,03; 22,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,89; -1,38</t>
+          <t>-22,68; -2,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 24,55</t>
+          <t>-0,37; 24,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 28,88</t>
+          <t>1,51; 27,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 33,79</t>
+          <t>-0,23; 39,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 15,21</t>
+          <t>-3,22; 15,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 22,64</t>
+          <t>0,58; 21,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 12,02</t>
+          <t>-7,77; 11,69</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 368,0</t>
+          <t>-67,1; 291,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 578,11</t>
+          <t>-52,38; 444,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 1130,22</t>
+          <t>-27,29; 1328,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 1181,23</t>
+          <t>-10,61; 1442,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 1557,96</t>
+          <t>-47,71; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 339,5</t>
+          <t>-27,98; 309,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 454,76</t>
+          <t>-0,93; 452,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,77; 231,33</t>
+          <t>-66,62; 259,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 13,38</t>
+          <t>-8,86; 13,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 9,22</t>
+          <t>-12,33; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 9,28</t>
+          <t>-12,47; 9,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 18,1</t>
+          <t>-8,44; 18,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 12,32</t>
+          <t>-10,7; 12,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 11,6</t>
+          <t>-12,45; 12,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 11,7</t>
+          <t>-3,9; 11,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 7,63</t>
+          <t>-8,21; 7,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 7,32</t>
+          <t>-9,82; 6,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 165,61</t>
+          <t>-44,18; 152,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 112,59</t>
+          <t>-68,56; 98,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,34; 122,48</t>
+          <t>-65,56; 116,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 229,37</t>
+          <t>-44,25; 210,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 144,13</t>
+          <t>-56,45; 174,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 170,24</t>
+          <t>-64,62; 200,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 115,78</t>
+          <t>-22,22; 127,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 81,05</t>
+          <t>-48,96; 76,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 79,24</t>
+          <t>-53,76; 81,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 15,55</t>
+          <t>-14,89; 15,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 16,01</t>
+          <t>-13,16; 16,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 7,65</t>
+          <t>-18,37; 7,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 24,75</t>
+          <t>-1,3; 25,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 6,74</t>
+          <t>-12,46; 6,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 11,91</t>
+          <t>-10,27; 12,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 17,15</t>
+          <t>-3,61; 16,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 8,43</t>
+          <t>-9,28; 7,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 6,92</t>
+          <t>-9,96; 7,41</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,52; 445,49</t>
+          <t>-86,1; 495,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,09; 436,45</t>
+          <t>-75,6; 365,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,32; —</t>
+          <t>-46,44; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,24; —</t>
+          <t>-93,91; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 451,05</t>
+          <t>-38,36; 374,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,91; 247,93</t>
+          <t>-65,94; 211,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 214,94</t>
+          <t>-73,98; 207,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 12,18</t>
+          <t>-4,89; 11,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 17,31</t>
+          <t>-3,24; 18,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 1,05</t>
+          <t>-9,7; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 23,46</t>
+          <t>-4,12; 23,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 14,03</t>
+          <t>-9,18; 15,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 1,31</t>
+          <t>-14,6; 2,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 15,14</t>
+          <t>-0,72; 14,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 11,23</t>
+          <t>-3,65; 10,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,5</t>
+          <t>-8,2; 0,88</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 1058,06</t>
+          <t>-54,44; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 761,37</t>
+          <t>-29,58; 847,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,49; 535,86</t>
+          <t>-65,64; 589,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 121,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 9,07</t>
+          <t>-2,83; 9,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,83</t>
+          <t>-3,15; 9,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 0,33</t>
+          <t>-10,06; 0,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 16,14</t>
+          <t>2,48; 15,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 8,8</t>
+          <t>-3,09; 9,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 4,99</t>
+          <t>-5,69; 5,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,42</t>
+          <t>0,78; 9,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,91</t>
+          <t>-1,65; 7,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,91</t>
+          <t>-6,5; 0,93</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 119,52</t>
+          <t>-24,47; 117,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 117,96</t>
+          <t>-26,66; 126,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 11,45</t>
+          <t>-75,18; 4,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,0; 291,42</t>
+          <t>21,49; 247,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 155,02</t>
+          <t>-29,39; 144,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 81,0</t>
+          <t>-48,12; 98,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,9; 147,18</t>
+          <t>4,6; 126,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 107,67</t>
+          <t>-17,04; 90,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 13,24</t>
+          <t>-55,37; 13,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13,77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14,78</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>7,34</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,82</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,77</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 13,24</t>
+          <t>-0,39; 23,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 22,43</t>
+          <t>1,09; 28,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -2,05</t>
+          <t>-0,43; 34,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 24,19</t>
+          <t>-12,97; 13,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 27,52</t>
+          <t>-8,56; 22,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 39,03</t>
+          <t>-23,13; -1,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 15,34</t>
+          <t>-2,88; 14,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 21,53</t>
+          <t>-0,18; 21,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 11,69</t>
+          <t>-8,17; 11,77</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>195,33%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>227,7%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>244,26%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,31%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>61,64%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-84,5%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>195,33%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>227,7%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>247,55%</t>
+          <t>-84,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,1; 291,2</t>
+          <t>-30,44; 1104,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 444,61</t>
+          <t>-16,9; 1202,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-51,01; 1589,08</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-69,48; 317,9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-52,55; 393,81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,29; 1328,65</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,61; 1442,44</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-47,71; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 309,52</t>
+          <t>-25,17; 333,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 452,79</t>
+          <t>-11,35; 399,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,62; 259,03</t>
+          <t>-70,68; 267,44</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,57</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,53</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 13,11</t>
+          <t>-6,84; 18,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 8,93</t>
+          <t>-10,58; 12,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 9,76</t>
+          <t>-10,26; 19,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 18,25</t>
+          <t>-8,59; 13,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 12,64</t>
+          <t>-12,99; 10,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 12,65</t>
+          <t>-12,06; 10,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 11,56</t>
+          <t>-4,51; 11,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 7,68</t>
+          <t>-8,98; 7,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,95</t>
+          <t>-8,8; 9,91</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>37,44%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>18,41%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-10,95%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-15,31%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>37,44%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>-16,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,69%</t>
+          <t>-3,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 152,07</t>
+          <t>-37,46; 232,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 98,57</t>
+          <t>-55,58; 172,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 116,92</t>
+          <t>-59,65; 272,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 210,29</t>
+          <t>-46,5; 168,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 174,13</t>
+          <t>-65,41; 120,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 200,03</t>
+          <t>-64,21; 152,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 127,53</t>
+          <t>-26,77; 120,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 76,35</t>
+          <t>-50,69; 73,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 81,74</t>
+          <t>-49,71; 93,94</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,11</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,18</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>2,11</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,78</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,11</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 15,38</t>
+          <t>-2,01; 24,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 16,35</t>
+          <t>-12,82; 6,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 7,08</t>
+          <t>-9,05; 12,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 25,47</t>
+          <t>-14,41; 15,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 6,93</t>
+          <t>-12,67; 15,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 12,07</t>
+          <t>-19,41; 6,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 16,5</t>
+          <t>-4,53; 16,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 7,93</t>
+          <t>-9,47; 8,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 7,41</t>
+          <t>-9,82; 6,62</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>193,04%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-16,07%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>1,6%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>18,31%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-41,51%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>193,04%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-16,07%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,02%</t>
+          <t>-43,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-13,39%</t>
+          <t>-15,33%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,1; 495,81</t>
+          <t>-60,82; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,6; 365,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,57; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,44; —</t>
+          <t>-89,09; 439,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,09; 326,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,91; —</t>
+          <t>-100,0; 193,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 374,81</t>
+          <t>-45,14; 368,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,94; 211,52</t>
+          <t>-65,86; 275,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,98; 207,98</t>
+          <t>-74,75; 188,9</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,25</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-4,87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,9</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>3,43</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,25</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 11,3</t>
+          <t>-2,5; 24,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 18,67</t>
+          <t>-10,14; 14,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 1,06</t>
+          <t>-15,36; 1,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 23,44</t>
+          <t>-4,86; 12,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 15,83</t>
+          <t>-3,33; 19,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 2,05</t>
+          <t>-9,81; 1,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 14,89</t>
+          <t>-1,58; 14,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 10,86</t>
+          <t>-4,82; 10,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 0,88</t>
+          <t>-8,85; -0,01</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>142,27%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-74,95%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>58,9%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>106,19%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-69,32%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>142,27%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,58%</t>
+          <t>-70,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-65,25%</t>
+          <t>-71,53%</t>
         </is>
       </c>
     </row>
@@ -1439,24 +1439,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-45,8; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-54,44; —</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 847,75</t>
+          <t>-28,5; 779,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,64; 589,55</t>
+          <t>-79,73; 433,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,54</t>
+          <t>-100,0; 32,34</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>8,95</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>2,75</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>2,82</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,76</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 9,05</t>
+          <t>2,11; 16,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 9,05</t>
+          <t>-3,3; 8,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,07</t>
+          <t>-6,24; 6,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 15,29</t>
+          <t>-2,92; 8,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,02</t>
+          <t>-3,61; 9,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,76</t>
+          <t>-9,75; 0,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,89</t>
+          <t>1,44; 10,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,01</t>
+          <t>-1,81; 7,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 0,93</t>
+          <t>-6,33; 1,67</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>100,58%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>26,99%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>27,68%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-46,66%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>100,58%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>31,27%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>-47,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>-28,17%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 117,76</t>
+          <t>16,17; 285,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 126,22</t>
+          <t>-30,36; 135,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,18; 4,39</t>
+          <t>-53,45; 105,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,49; 247,0</t>
+          <t>-24,3; 118,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 144,8</t>
+          <t>-28,1; 122,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 98,38</t>
+          <t>-74,9; 10,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,6; 126,3</t>
+          <t>12,21; 140,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 90,27</t>
+          <t>-15,71; 93,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 13,2</t>
+          <t>-55,13; 20,49</t>
         </is>
       </c>
     </row>
